--- a/data/tab5_revloss.xlsx
+++ b/data/tab5_revloss.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardevans/Docs/Economics/OSE/NV-SalesTax/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0430ADE4-4B44-154F-A440-22669F2DDD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABF2C0-CD1C-5445-B7EC-C49AE4693C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18100" yWindow="10440" windowWidth="13840" windowHeight="16940" xr2:uid="{5FE05CAF-88AE-F141-AFD4-3476055E8A33}"/>
+    <workbookView xWindow="-19200" yWindow="7620" windowWidth="21600" windowHeight="16940" xr2:uid="{5FE05CAF-88AE-F141-AFD4-3476055E8A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Sales and use tax receipts</t>
   </si>
@@ -47,22 +47,94 @@
     <t>FY 2025-2026 (projected, 4% annual growth rate)</t>
   </si>
   <si>
-    <t>0.6 ppt reduction (no change in demand)</t>
-  </si>
-  <si>
-    <t>0.6 ppt reduction (estimate demand chg)</t>
-  </si>
-  <si>
     <t>Revenue loss</t>
   </si>
   <si>
     <t>Percent change</t>
+  </si>
+  <si>
+    <t>0.6 ppt sales tax reduction (no change in demand)</t>
+  </si>
+  <si>
+    <t>0.6 ppt sales taxreduction (estimate demand chg)</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>State and local sales tax rate</t>
+  </si>
+  <si>
+    <t>County population, 2021</t>
+  </si>
+  <si>
+    <t>Carson City</t>
+  </si>
+  <si>
+    <t>Churchill</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Elko</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Eureka</t>
+  </si>
+  <si>
+    <t>Humbolt</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Nye</t>
+  </si>
+  <si>
+    <t>Pershing</t>
+  </si>
+  <si>
+    <t>Storey</t>
+  </si>
+  <si>
+    <t>Washoe</t>
+  </si>
+  <si>
+    <t>White Pine</t>
+  </si>
+  <si>
+    <t>New state and local sales tax</t>
+  </si>
+  <si>
+    <t>weighted average percent change</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000000000000000%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -92,8 +164,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,57 +507,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DCE9CC-BB72-8C48-B4CD-2F80F1E10C4E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1731448238</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <f>((1+0.04)^3)*B2</f>
         <v>1947643790.7896321</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
         <f>0.04*(B3/0.046)</f>
         <v>1693603296.3388104</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f>B4-B3</f>
         <v>-254040494.45082164</v>
       </c>
@@ -487,21 +569,454 @@
         <v>-0.13043478260869568</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>0.04*((B4/0.04)*(1 + (-0.006/0.046)*(-0.816)))</f>
-        <v>1873861595.0100019</v>
-      </c>
-      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <f>0.04*((B4/0.04)*(1 + (E28)*(-0.816)))</f>
+        <v>1794469075.9569082</v>
+      </c>
+      <c r="C5" s="5">
         <f>B5-B3</f>
-        <v>-73782195.779630184</v>
+        <v>-153174714.83272386</v>
       </c>
       <c r="D5">
         <f>C5/B3</f>
-        <v>-3.7882797731569134E-2</v>
+        <v>-7.8646164949198599E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C9">
+        <v>57073</v>
+      </c>
+      <c r="D9" s="1">
+        <f>B9-0.006</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <f>(D9-B9)/B9</f>
+        <v>-7.894736842105271E-2</v>
+      </c>
+      <c r="G9">
+        <f>E9*C9</f>
+        <v>-4505.7631578947412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>26310</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:D25" si="0">B10-0.006</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:E25" si="1">(D10-B10)/B10</f>
+        <v>-7.894736842105271E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G25" si="2">E10*C10</f>
+        <v>-2077.1052631578968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.3750000000000005E-2</v>
+      </c>
+      <c r="C11">
+        <v>2320551</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>7.775E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.1641791044776179E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>-166248.42985074641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C12">
+        <v>49661</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.4507042253521208E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>-4196.7042253521167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C13">
+        <v>54546</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.4507042253521208E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-4609.5211267605682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.7591240875912482E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>-87.591240875912476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="C15">
+        <v>1898</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.7591240875912482E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>-166.2481751824819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="C16">
+        <v>17202</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.7591240875912482E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>-1506.7445255474465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C17">
+        <v>6195</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.4507042253521208E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>-523.5211267605639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C18">
+        <v>5188</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.4507042253521208E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>-438.42253521126804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C19">
+        <v>58051</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.4507042253521208E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>-4905.7183098591595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="C20">
+        <v>4826</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.7591240875912482E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>-422.71532846715365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C21">
+        <v>49289</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.894736842105271E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>-3891.236842105267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C22">
+        <v>6984</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.4507042253521208E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>-590.19718309859206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C23">
+        <v>4359</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.894736842105271E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>-344.13157894736878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.2650000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <v>485113</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6649999999999996E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.2595281306715123E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>-35216.91470054449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7.7249999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>10293</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1249999999999994E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.7669902912621436E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>-799.45631067961244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <f>SUM(G9:G25)/SUM(C9:C25)</f>
+        <v>-7.298640969169326E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <f>B4/0.04</f>
+        <v>42340082408.470261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <f>(B4/0.04)*(1 + E28*(-0.816))</f>
+        <v>44861726898.922707</v>
+      </c>
+      <c r="D32">
+        <f>(B32-B31)/B31</f>
+        <v>5.9556910308421682E-2</v>
       </c>
     </row>
   </sheetData>
